--- a/public/files/template/inventory/kibe.xlsx
+++ b/public/files/template/inventory/kibe.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projek\newepuskesmas\public\files\template\inventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projek\epuskesmasgarut\public\files\template\inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -386,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -409,30 +409,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -460,6 +436,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -493,11 +475,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -699,6 +696,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -734,6 +748,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -889,7 +920,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,47 +940,47 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -961,7 +992,7 @@
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="15" t="s">
         <v>46</v>
       </c>
       <c r="H3" s="1"/>
@@ -985,7 +1016,7 @@
       <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="15" t="s">
         <v>47</v>
       </c>
       <c r="H4" s="1"/>
@@ -1009,7 +1040,7 @@
       <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="16" t="s">
         <v>48</v>
       </c>
       <c r="H5" s="1"/>
@@ -1033,7 +1064,7 @@
       <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="16" t="s">
         <v>49</v>
       </c>
       <c r="H6" s="1"/>
@@ -1057,7 +1088,7 @@
       <c r="D7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="16" t="s">
         <v>50</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -1083,7 +1114,7 @@
       <c r="D8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="16" t="s">
         <v>51</v>
       </c>
       <c r="H8" s="1"/>
@@ -1107,7 +1138,7 @@
       <c r="D9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="16" t="s">
         <v>52</v>
       </c>
       <c r="H9" s="1"/>
@@ -1123,14 +1154,14 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="18" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="17" t="s">
         <v>54</v>
       </c>
       <c r="F10" s="4"/>
@@ -1169,105 +1200,105 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="29" t="s">
+      <c r="C12" s="29"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="31" t="s">
+      <c r="F12" s="24"/>
+      <c r="G12" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="29" t="s">
+      <c r="H12" s="26"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="25" t="s">
+      <c r="K12" s="24"/>
+      <c r="L12" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="25" t="s">
+      <c r="M12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="N12" s="25" t="s">
+      <c r="N12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="O12" s="25" t="s">
+      <c r="O12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="P12" s="25" t="s">
+      <c r="P12" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="25" t="s">
+      <c r="J13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="25" t="s">
+      <c r="K13" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="7" t="s">
@@ -1301,72 +1332,75 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="22"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="L17" s="14" t="s">
+      <c r="L17" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="M17" s="14" t="s">
+      <c r="M17" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="N17" s="14" t="s">
+      <c r="N17" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="O17" s="14" t="s">
+      <c r="O17" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="P17" s="14" t="s">
+      <c r="P17" s="36" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="B1:R1"/>
     <mergeCell ref="B2:R2"/>
@@ -1383,9 +1417,6 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
